--- a/data/trans_camb/P23_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_R2-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-4.345764609365038</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-13.67020365987971</v>
+        <v>-13.67020365987972</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-11.69668147206987</v>
+        <v>-12.37260660480094</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.418526669742311</v>
+        <v>-8.40807896602249</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-21.3878366532715</v>
+        <v>-20.93358466861935</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.523466012151953</v>
+        <v>-6.933441020846291</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-12.52998456059557</v>
+        <v>-12.57415183584562</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-20.86775354677145</v>
+        <v>-21.72804884030974</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-7.224055510028784</v>
+        <v>-7.432256297333932</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-9.14362485555022</v>
+        <v>-8.818970431515263</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-18.90569689863676</v>
+        <v>-18.97749495082735</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3261473694537086</v>
+        <v>0.4909445982617254</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.882139240418156</v>
+        <v>4.387587866319195</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-5.35471567072861</v>
+        <v>-4.656519114264615</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.616168546269106</v>
+        <v>5.645969770692298</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.6817919050951153</v>
+        <v>-0.7543461857175637</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-7.46705037223509</v>
+        <v>-7.300280984498634</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8096196749646394</v>
+        <v>1.221182376714512</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02175126462341938</v>
+        <v>-0.04622144579101946</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-8.283995344155958</v>
+        <v>-8.162685132166235</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.125107613082138</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.39354330111408</v>
+        <v>-0.3935433011140802</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3024220534279936</v>
+        <v>-0.3168087779600908</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2196278180003385</v>
+        <v>-0.219884229476306</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5570045058930727</v>
+        <v>-0.5486721640692288</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1776805107084806</v>
+        <v>-0.1890105384737537</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3498845195915129</v>
+        <v>-0.349333098786146</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5941255812415959</v>
+        <v>-0.6083801764878122</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1968916256683362</v>
+        <v>-0.2023600254345157</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2448284605850297</v>
+        <v>-0.2401477543090214</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5200488594642172</v>
+        <v>-0.5266159883989014</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.01487278744388106</v>
+        <v>0.01783333906313705</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1180674429887461</v>
+        <v>0.1321007437547881</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1481443397634035</v>
+        <v>-0.134237712070187</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1845236163876977</v>
+        <v>0.1843809811301865</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.01962797622327106</v>
+        <v>-0.01852083636670221</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2369870695893254</v>
+        <v>-0.2291201698004698</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02816900664528779</v>
+        <v>0.03793442030550451</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.001646959471211687</v>
+        <v>-0.001600108645848265</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.2442305484542016</v>
+        <v>-0.2447750212570158</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.73137963325505</v>
+        <v>-10.79794995634073</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-10.46153897787928</v>
+        <v>-11.16637222072787</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-21.17901015691552</v>
+        <v>-21.35543149943782</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.254832426482383</v>
+        <v>-0.6527075465411285</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.382880459345752</v>
+        <v>-2.176016661927852</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-16.70817486646168</v>
+        <v>-16.01431122144126</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.599787524324713</v>
+        <v>-4.243670691029747</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.906772092574683</v>
+        <v>-5.673480046710671</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-17.54471920390018</v>
+        <v>-17.87232139298532</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.3170757566922116</v>
+        <v>0.6927163862186712</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05796904718198455</v>
+        <v>0.6858239670361981</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-8.145572508233546</v>
+        <v>-7.390225697469917</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.75036459961387</v>
+        <v>10.95074669987617</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>8.904814118861353</v>
+        <v>8.430803857389394</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-5.076424065908482</v>
+        <v>-4.191048117890221</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.146311497777795</v>
+        <v>3.132087151306171</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.592197161658704</v>
+        <v>2.525759549024402</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-9.180543656063849</v>
+        <v>-9.00969058125848</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.1034347825197577</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.3127906551101803</v>
+        <v>-0.3127906551101804</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1479231471029595</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.204509625342698</v>
+        <v>-0.2076386634069446</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2024400859550145</v>
+        <v>-0.2164628870268753</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4175906636037303</v>
+        <v>-0.4172055991443831</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.01027116436022512</v>
+        <v>-0.01821794453639859</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.06674399646534869</v>
+        <v>-0.05747217633970221</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4423450082485103</v>
+        <v>-0.4341055150661434</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.102377615741098</v>
+        <v>-0.09543809048175471</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.132821460549141</v>
+        <v>-0.1276386569529574</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4018783567337453</v>
+        <v>-0.4149718252620312</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.006570243851691863</v>
+        <v>0.01544995731802954</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.001398872140984268</v>
+        <v>0.01349937460123458</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1684439382311272</v>
+        <v>-0.1570355552797185</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3329754173622196</v>
+        <v>0.3372936888966381</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2751560005545466</v>
+        <v>0.2613875468103312</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1540396241407958</v>
+        <v>-0.1333632980917764</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07714605562409237</v>
+        <v>0.07763093146332659</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.06060220636024186</v>
+        <v>0.06197245209302656</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.226229336695174</v>
+        <v>-0.2195383211576313</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-3.704999157163047</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-13.55650960728991</v>
+        <v>-13.55650960728992</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-4.431189036930494</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.6972975777121</v>
+        <v>-11.85980899918537</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-17.93965382844253</v>
+        <v>-18.01454330416967</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-30.55062262393625</v>
+        <v>-30.16769485771852</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.373910777616436</v>
+        <v>-8.198584369645886</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-9.332724670885788</v>
+        <v>-8.705943542440622</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-17.93430818018397</v>
+        <v>-18.50036271236995</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-8.222938869197502</v>
+        <v>-8.303055875834875</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-11.70677863323436</v>
+        <v>-11.60700492800398</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-22.71022513402498</v>
+        <v>-23.03958068036047</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.4807184370040007</v>
+        <v>-0.6971592763041567</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-6.438921390038177</v>
+        <v>-6.659005749276588</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-19.11938247308442</v>
+        <v>-19.05281952240718</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.459944494596412</v>
+        <v>2.181666294638605</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.511616323295198</v>
+        <v>1.378015441715942</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-8.24160921888179</v>
+        <v>-9.209089207254989</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.6423413042991535</v>
+        <v>-0.8463113054296675</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-4.255789431161109</v>
+        <v>-3.722931620013532</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-15.23940147405649</v>
+        <v>-15.46340869561622</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.09987191254658899</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.3654291092937675</v>
+        <v>-0.3654291092937677</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.09992376124289069</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.214060415204084</v>
+        <v>-0.2178826893630645</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3244647854681278</v>
+        <v>-0.3280190458022336</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5573321179794897</v>
+        <v>-0.5504725699960397</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2126184301422192</v>
+        <v>-0.2071258730662315</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2339585375827974</v>
+        <v>-0.2168381428028244</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4511015480895341</v>
+        <v>-0.4727984365109371</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1793484889243749</v>
+        <v>-0.1795161058242424</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2507925096395102</v>
+        <v>-0.2505722094143746</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.488648653588845</v>
+        <v>-0.494483700788809</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.01045745039379895</v>
+        <v>-0.01517792784016378</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1315848430597287</v>
+        <v>-0.1335485522782787</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.3878943485777204</v>
+        <v>-0.3821802318774839</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.07394215761302725</v>
+        <v>0.06254445577605011</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.04276484633215353</v>
+        <v>0.04205476833646051</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.245297819565777</v>
+        <v>-0.2693838080828983</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.01475728394042151</v>
+        <v>-0.01559263269581543</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.09553257288239862</v>
+        <v>-0.08948290864596101</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.3593403026799107</v>
+        <v>-0.3623721459217702</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>8.208793518777913</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-3.752105095111966</v>
+        <v>-3.752105095111963</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>6.308586941999616</v>
@@ -1306,7 +1306,7 @@
         <v>3.629550496376477</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-9.938928543373082</v>
+        <v>-9.938928543373077</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.435389884928318</v>
+        <v>-4.999068539347156</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-7.259602063698003</v>
+        <v>-7.096748934411918</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-21.85279428116459</v>
+        <v>-21.91713903620075</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.734255099160177</v>
+        <v>5.472470007938155</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.430301211258475</v>
+        <v>3.130898321095573</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-8.640576308270477</v>
+        <v>-8.70888439169692</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.235650011104863</v>
+        <v>1.161678785942255</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.4304455555549363</v>
+        <v>-0.9584150191993096</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-13.67616445793505</v>
+        <v>-13.6142675363563</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.449962450958723</v>
+        <v>7.010098239547127</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.512230668289639</v>
+        <v>5.387760941307921</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-10.05284133634985</v>
+        <v>-10.7150290096034</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17.1735995301596</v>
+        <v>17.32414538150778</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>13.76713579381556</v>
+        <v>14.18276764127195</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9919069003766167</v>
+        <v>0.6741860346679822</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.57707896649393</v>
+        <v>10.36004780769669</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.749457642170096</v>
+        <v>7.313073618967429</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-6.348748156176856</v>
+        <v>-6.374404829307609</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.02025393516781007</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.3637539292119886</v>
+        <v>-0.3637539292119887</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.4142247821220656</v>
@@ -1402,7 +1402,7 @@
         <v>0.2988259017124847</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.136588426277503</v>
+        <v>-0.1365884262775029</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1766758078357372</v>
@@ -1411,7 +1411,7 @@
         <v>0.1016477654859201</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.2783457286974508</v>
+        <v>-0.2783457286974507</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.09341707138079795</v>
+        <v>-0.1062178244184625</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1539920718485884</v>
+        <v>-0.1470716394926136</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4584939418858999</v>
+        <v>-0.4614733172297187</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.183318202221961</v>
+        <v>0.1838220984869025</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.08069349267273451</v>
+        <v>0.0972164828598544</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2798686409977963</v>
+        <v>-0.283215566511241</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0579689306597571</v>
+        <v>0.03168262225945365</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.01373401024418464</v>
+        <v>-0.02487322655771319</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3600795825265808</v>
+        <v>-0.3579400918543507</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1872297710389526</v>
+        <v>0.1784399764231619</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1360476042089696</v>
+        <v>0.1324648046144328</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.2480134229402147</v>
+        <v>-0.2578210777088815</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.69969349665993</v>
+        <v>0.7118160979106878</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5690826078488674</v>
+        <v>0.5748591532296056</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04344682903694201</v>
+        <v>0.03076747337469986</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3184252335182483</v>
+        <v>0.3095779917859828</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2326064803325232</v>
+        <v>0.2225122847006092</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1909630751506866</v>
+        <v>-0.1909126558122442</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-2.319454983934277</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-2.097944069108709</v>
+        <v>-2.097944069108721</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.540787948481802</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.100550390878137</v>
+        <v>-4.113631910443016</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-8.579013756738684</v>
+        <v>-9.45630713424833</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.936756307036115</v>
+        <v>-8.994465281261585</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.29329724632839</v>
+        <v>-0.6776381321781296</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>6.447661282861707</v>
+        <v>6.380607779603318</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>6.204678279577623</v>
+        <v>6.014549854405732</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.022307186905081</v>
+        <v>-0.7794229698235127</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.08208829488499911</v>
+        <v>0.4967698871608343</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2846570673711492</v>
+        <v>0.7140279649083122</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.20748934579239</v>
+        <v>9.495139805547268</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.728033206856788</v>
+        <v>4.274855717626642</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.709402841418638</v>
+        <v>3.284123988262308</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.431554087980468</v>
+        <v>8.516198039119924</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>16.61038665876907</v>
+        <v>16.69267157806837</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>14.51098368764238</v>
+        <v>14.6862440380157</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>7.505400526426759</v>
+        <v>7.839212015533355</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>8.873981502767883</v>
+        <v>8.837979091419308</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>8.085641043651567</v>
+        <v>8.047607077306182</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.07019374966706374</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.063490156878462</v>
+        <v>-0.06349015687846234</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.3050742932990012</v>
@@ -1616,7 +1616,7 @@
         <v>0.9828463516404189</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.9010056299038517</v>
+        <v>0.9010056299038519</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1518428109801725</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.09053966317605207</v>
+        <v>-0.1132539897454153</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2355331292323796</v>
+        <v>-0.2520875375733949</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2199472107644206</v>
+        <v>-0.235498210139066</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.08928884039558563</v>
+        <v>-0.05662249308451309</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.4621108874071237</v>
+        <v>0.4690080113012338</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4289737834549632</v>
+        <v>0.392767478838165</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.04023716298142525</v>
+        <v>-0.04420706992381166</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.003258684230658321</v>
+        <v>0.01999837435305624</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.007466420909403941</v>
+        <v>0.02751481084855866</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3802551195390476</v>
+        <v>0.3170354327259665</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1601521049117303</v>
+        <v>0.1467756282092162</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1242653851940388</v>
+        <v>0.1144670980603648</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.906068150189001</v>
+        <v>0.9449995206193272</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.792525327630297</v>
+        <v>1.767997404598519</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.635548242677042</v>
+        <v>1.640298690578385</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3699544078352799</v>
+        <v>0.3824482575653527</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4394456396507064</v>
+        <v>0.4368438336749242</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4048848755847109</v>
+        <v>0.4052940202406426</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-0.7560723672988573</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>0.2216254684804408</v>
+        <v>0.2216254684804436</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>3.447891621606798</v>
@@ -1734,7 +1734,7 @@
         <v>2.991372600818257</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>5.893500381616816</v>
+        <v>5.893500381616819</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-7.982393182833268</v>
+        <v>-7.546959567745488</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-7.007239465676948</v>
+        <v>-7.231962543225916</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-5.021381159803195</v>
+        <v>-5.061635271790245</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.8194428502607842</v>
+        <v>0.8381664287459791</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>2.955737822790766</v>
+        <v>3.300405925783482</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>7.805704083991877</v>
+        <v>8.104671071846745</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.169228564049702</v>
+        <v>-1.775492376037271</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.2822998634772049</v>
+        <v>-0.1888220040874215</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>2.905985919579898</v>
+        <v>2.857599602769152</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.790731120876702</v>
+        <v>5.173506810872771</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.416326667500871</v>
+        <v>4.916066023389694</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5.396408207203125</v>
+        <v>5.716487292418984</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6.492519387870797</v>
+        <v>6.624926987319951</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>9.254029917305738</v>
+        <v>9.43173725861687</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>13.30913504510563</v>
+        <v>13.41310862238672</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>4.770534316225807</v>
+        <v>4.642102179175167</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>6.52105710668966</v>
+        <v>7.052005201153218</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>8.876145160895392</v>
+        <v>8.998328788449925</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.0416029339033315</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.01219495661430794</v>
+        <v>0.01219495661430809</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>1.795613707345598</v>
@@ -1839,7 +1839,7 @@
         <v>0.3181299106789786</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.6267687112857242</v>
+        <v>0.6267687112857245</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3691052329563916</v>
+        <v>-0.3635159472222473</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3278827516155229</v>
+        <v>-0.349325173885302</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2367568773259607</v>
+        <v>-0.2371070229136319</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.1005249411235436</v>
+        <v>0.1803955661957641</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.8843981707761452</v>
+        <v>0.9844539723853661</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2.182793030788083</v>
+        <v>2.205039749501268</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1993403704130309</v>
+        <v>-0.1633752821140571</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.05164960156090809</v>
+        <v>-0.03931301497506118</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.2529964848806106</v>
+        <v>0.2563538513410368</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.3166998160203133</v>
+        <v>0.3425136615433526</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3572023637960933</v>
+        <v>0.3138041871081432</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.3655922767334207</v>
+        <v>0.3852655251709043</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>7.364816740014466</v>
+        <v>6.60894033554571</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>10.36172435436105</v>
+        <v>10.66500997048081</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>14.16167907876538</v>
+        <v>14.53019949215738</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6064017422889419</v>
+        <v>0.5958836950707912</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.8011162798770157</v>
+        <v>0.8614111303097172</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.158950692082646</v>
+        <v>1.206235679256691</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>-0.1515584697314915</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-1.537017647890035</v>
+        <v>-1.537017647890036</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-5.805488008567905</v>
+        <v>-5.363804559962919</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.58774509232789</v>
+        <v>-6.333056805745514</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-9.465660115534071</v>
+        <v>-9.911869549363574</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.330677545444091</v>
+        <v>-2.251367701473082</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.526430742237492</v>
+        <v>-1.334093004584037</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.043897260189663</v>
+        <v>-2.09321713442422</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.56684998592388</v>
+        <v>-3.061283378940788</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.646565610733179</v>
+        <v>-2.706809546828073</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-4.14886557442667</v>
+        <v>-4.239710347253349</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>6.226529793195664</v>
+        <v>5.800652874656603</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.775187120153417</v>
+        <v>3.64520228711651</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.1385005689389341</v>
+        <v>0.001000461938528551</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.51993102524776</v>
+        <v>1.47304942942014</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.656361027828046</v>
+        <v>2.985020590753747</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.344275167554027</v>
+        <v>1.374691631993247</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.642177880443813</v>
+        <v>2.32041248412405</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.46578803045662</v>
+        <v>2.192845885257171</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.3704578430934567</v>
+        <v>0.4560771557028433</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>-0.03020181288456437</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.3062891799058762</v>
+        <v>-0.3062891799058763</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,29 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4288359622975763</v>
+        <v>-0.4156693973962423</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.4884418791395435</v>
+        <v>-0.4638430367229685</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.6468665103065178</v>
-      </c>
-      <c r="F44" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.6800463692662142</v>
+      </c>
+      <c r="F44" s="6" t="inlineStr"/>
       <c r="G44" s="6" t="n">
-        <v>-0.8127643237332182</v>
+        <v>-0.6460651594830537</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.7309645971671372</v>
+        <v>-0.7154146469012582</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.4307786218018421</v>
+        <v>-0.4744832794287378</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.4256677953205172</v>
+        <v>-0.4105640511418091</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.5916456341536437</v>
+        <v>-0.5980420846242813</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2097,29 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.8053421176135386</v>
+        <v>0.8403645907335444</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.4939131775472112</v>
+        <v>0.5217966653442765</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.03241232555330743</v>
-      </c>
-      <c r="F45" s="6" t="n">
-        <v>3.752678631696354</v>
-      </c>
+        <v>-0.006136379265113788</v>
+      </c>
+      <c r="F45" s="6" t="inlineStr"/>
       <c r="G45" s="6" t="n">
-        <v>5.015203200051528</v>
+        <v>8.662369330520731</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>3.192351251474691</v>
+        <v>3.42562519392532</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.7081481957290493</v>
+        <v>0.6252488265977665</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.7148153257261298</v>
+        <v>0.6169878165042109</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.1067009612686746</v>
+        <v>0.1109150818840142</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2149,7 @@
         <v>1.494963723177631</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-5.603085487523388</v>
+        <v>-5.603085487523391</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-0.2670084913261761</v>
@@ -2173,31 +2169,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-5.414252922352635</v>
+        <v>-5.171987921501421</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-7.448102782316404</v>
+        <v>-7.721625595673422</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-16.67467052838833</v>
+        <v>-16.7226509001654</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0.3602698597175339</v>
+        <v>0.2382013832761705</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.4276623887491934</v>
+        <v>-0.597678847421522</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-7.421394668145116</v>
+        <v>-7.396430383110444</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.903332207922321</v>
+        <v>-1.688973150392753</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-3.342778083340803</v>
+        <v>-3.333045952978224</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-11.55955553717973</v>
+        <v>-11.46081330653588</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2204,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.2890551987064887</v>
+        <v>-0.4828686019093945</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-2.579823173664525</v>
+        <v>-2.826496793014096</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-11.79249384426623</v>
+        <v>-11.91113814128012</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.568542311031294</v>
+        <v>4.621692201387243</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>3.599771950731372</v>
+        <v>3.622247922529163</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-3.920621589194582</v>
+        <v>-3.622332102191888</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.308260799023985</v>
+        <v>1.541877780632495</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.1159448982259241</v>
+        <v>-0.1117203310826634</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-8.443958743070274</v>
+        <v>-8.323907493153246</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2254,7 @@
         <v>0.06087920517014854</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.2281736912356417</v>
+        <v>-0.2281736912356418</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.008322280841249842</v>
@@ -2278,31 +2274,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.1322788032389689</v>
+        <v>-0.1268351631812414</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.1814779541941129</v>
+        <v>-0.1881613236528506</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.407176830621324</v>
+        <v>-0.4070420966549698</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.0132960547760282</v>
+        <v>0.004871034171574634</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.01761737833156777</v>
+        <v>-0.02401490248884324</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.2903065700996634</v>
+        <v>-0.2872726580671409</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.05742126632718177</v>
+        <v>-0.05169854460821187</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.1024737351599001</v>
+        <v>-0.1017491324306912</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.3508804504571281</v>
+        <v>-0.3482086425391034</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2309,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.007415839725262347</v>
+        <v>-0.01323155312245238</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.06705735873834366</v>
+        <v>-0.07253288266758888</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.3040564684022156</v>
+        <v>-0.3083139635364441</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1917197328269994</v>
+        <v>0.1943010799680105</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1528721663325688</v>
+        <v>0.153212019988407</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.1658065909965252</v>
+        <v>-0.1537880558020014</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.04223976960359416</v>
+        <v>0.04835559981049951</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.003653368331310658</v>
+        <v>-0.003078655220763787</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.2702937914548977</v>
+        <v>-0.2654637955072683</v>
       </c>
     </row>
     <row r="52">
